--- a/figures/equally_2_live_time.xlsx
+++ b/figures/equally_2_live_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kienkauko\OneDrive - Hanoi University of Science and Technology\Simulators-n-tools\serverless-simulator\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970BA380-C521-40B1-93F8-51EE7A2132A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF199E-CBC9-4337-AAE2-4DAD38EC9EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-960" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-960" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_Results" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -7553,9 +7553,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
